--- a/state_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
+++ b/state_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U256"/>
+  <dimension ref="A1:U277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.58194970285666</v>
+        <v>2.54928352134989</v>
       </c>
       <c r="H2" t="n">
-        <v>9.024358956457251</v>
+        <v>9.06392170505508</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4863</v>
+        <v>6.19</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>4.145</v>
       </c>
       <c r="N2" t="n">
-        <v>5.364</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1841894</v>
@@ -1153,7 +1153,7 @@
         <v>0.00391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0076611695398186</v>
+        <v>0.007683294542637</v>
       </c>
       <c r="H9" t="n">
         <v>0.0786492608160879</v>
@@ -1234,7 +1234,7 @@
         <v>0.00391</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0076611695398186</v>
+        <v>0.007683294542637</v>
       </c>
       <c r="H10" t="n">
         <v>0.0786492608160879</v>
@@ -1473,7 +1473,7 @@
         <v>0.644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.730745762711864</v>
+        <v>0.7307813559322029</v>
       </c>
       <c r="H13" t="n">
         <v>2.16</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.265</v>
+        <v>0.2655</v>
       </c>
       <c r="M13" t="n">
         <v>1.31205</v>
@@ -1550,7 +1550,7 @@
         <v>0.644</v>
       </c>
       <c r="G14" t="n">
-        <v>0.730745762711864</v>
+        <v>0.7307813559322029</v>
       </c>
       <c r="H14" t="n">
         <v>2.16</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.265</v>
+        <v>0.2655</v>
       </c>
       <c r="M14" t="n">
         <v>1.31205</v>
@@ -1628,16 +1628,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68359851376318</v>
+        <v>2.57402454702989</v>
       </c>
       <c r="H15" t="n">
-        <v>9.024358956457251</v>
+        <v>9.06392170505508</v>
       </c>
       <c r="I15" t="n">
-        <v>7.04301</v>
+        <v>6.98778</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1645,10 +1645,10 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>4.40731</v>
+        <v>4.31</v>
       </c>
       <c r="N15" t="n">
-        <v>6.26</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
         <v>1841894</v>
@@ -2214,7 +2214,7 @@
         <v>0.00459</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0084896007598508</v>
+        <v>0.008512275832620099</v>
       </c>
       <c r="H22" t="n">
         <v>0.0786492608160879</v>
@@ -2295,7 +2295,7 @@
         <v>0.00459</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0084896007598508</v>
+        <v>0.008512275832620099</v>
       </c>
       <c r="H23" t="n">
         <v>0.0786492608160879</v>
@@ -2534,7 +2534,7 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6445254237288141</v>
+        <v>0.644561016949153</v>
       </c>
       <c r="H26" t="n">
         <v>1.94</v>
@@ -2545,7 +2545,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.257</v>
+        <v>0.2575</v>
       </c>
       <c r="M26" t="n">
         <v>1.14051</v>
@@ -2611,7 +2611,7 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6445254237288141</v>
+        <v>0.644561016949153</v>
       </c>
       <c r="H27" t="n">
         <v>1.94</v>
@@ -2622,7 +2622,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.257</v>
+        <v>0.2575</v>
       </c>
       <c r="M27" t="n">
         <v>1.14051</v>
@@ -2997,27 +2997,27 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G32" t="n">
-        <v>2.20733620326317</v>
+        <v>2.09502328757151</v>
       </c>
       <c r="H32" t="n">
-        <v>6.50153027890237</v>
+        <v>6.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.35</v>
+        <v>5</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="M32" t="n">
-        <v>3.755</v>
+        <v>3.455</v>
       </c>
       <c r="N32" t="n">
-        <v>4.96</v>
+        <v>4.64227</v>
       </c>
       <c r="O32" t="n">
         <v>1841894</v>
@@ -3583,7 +3583,7 @@
         <v>0.00687</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0109856973645586</v>
+        <v>0.0110033387441946</v>
       </c>
       <c r="H39" t="n">
         <v>0.0786492608160879</v>
@@ -3664,7 +3664,7 @@
         <v>0.00687</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0109856973645586</v>
+        <v>0.0110033387441946</v>
       </c>
       <c r="H40" t="n">
         <v>0.0786492608160879</v>
@@ -3903,7 +3903,7 @@
         <v>0.546</v>
       </c>
       <c r="G43" t="n">
-        <v>0.59606779661017</v>
+        <v>0.596074576271186</v>
       </c>
       <c r="H43" t="n">
         <v>1.565</v>
@@ -3914,13 +3914,13 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.257</v>
+        <v>0.2575</v>
       </c>
       <c r="M43" t="n">
         <v>1.03846</v>
       </c>
       <c r="N43" t="n">
-        <v>1.24968</v>
+        <v>1.24929</v>
       </c>
       <c r="O43" t="n">
         <v>1841894</v>
@@ -3980,7 +3980,7 @@
         <v>0.546</v>
       </c>
       <c r="G44" t="n">
-        <v>0.59606779661017</v>
+        <v>0.596074576271186</v>
       </c>
       <c r="H44" t="n">
         <v>1.565</v>
@@ -3991,13 +3991,13 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.257</v>
+        <v>0.2575</v>
       </c>
       <c r="M44" t="n">
         <v>1.03846</v>
       </c>
       <c r="N44" t="n">
-        <v>1.24968</v>
+        <v>1.24929</v>
       </c>
       <c r="O44" t="n">
         <v>1841894</v>
@@ -4447,27 +4447,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G50" t="n">
-        <v>2.16000300341494</v>
+        <v>2.04246623117948</v>
       </c>
       <c r="H50" t="n">
-        <v>6.50153027890237</v>
+        <v>6.4</v>
       </c>
       <c r="I50" t="n">
-        <v>5.49</v>
+        <v>5</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="M50" t="n">
-        <v>3.914</v>
+        <v>3.557</v>
       </c>
       <c r="N50" t="n">
-        <v>5</v>
+        <v>4.66815</v>
       </c>
       <c r="O50" t="n">
         <v>1841894</v>
@@ -5110,7 +5110,7 @@
         <v>0.00686</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0108513086465431</v>
+        <v>0.0108622314078419</v>
       </c>
       <c r="H58" t="n">
         <v>0.0786492608160879</v>
@@ -5191,7 +5191,7 @@
         <v>0.00686</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0108513086465431</v>
+        <v>0.0108622314078419</v>
       </c>
       <c r="H59" t="n">
         <v>0.0786492608160879</v>
@@ -5427,21 +5427,21 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.439</v>
+        <v>0.4394</v>
       </c>
       <c r="G62" t="n">
-        <v>0.555932203389831</v>
+        <v>0.555967796610169</v>
       </c>
       <c r="H62" t="n">
         <v>1.565</v>
       </c>
       <c r="I62" t="n">
-        <v>1.2873</v>
+        <v>1.28707</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.257</v>
+        <v>0.2575</v>
       </c>
       <c r="M62" t="n">
         <v>1.01794</v>
@@ -5504,21 +5504,21 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.439</v>
+        <v>0.4394</v>
       </c>
       <c r="G63" t="n">
-        <v>0.555932203389831</v>
+        <v>0.555967796610169</v>
       </c>
       <c r="H63" t="n">
         <v>1.565</v>
       </c>
       <c r="I63" t="n">
-        <v>1.2873</v>
+        <v>1.28707</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.257</v>
+        <v>0.2575</v>
       </c>
       <c r="M63" t="n">
         <v>1.01794</v>
@@ -6051,27 +6051,27 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.775</v>
+        <v>1.745</v>
       </c>
       <c r="G70" t="n">
-        <v>1.99687140161762</v>
+        <v>1.92069233297145</v>
       </c>
       <c r="H70" t="n">
         <v>6.4</v>
       </c>
       <c r="I70" t="n">
-        <v>4.48516</v>
+        <v>4.402</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="M70" t="n">
-        <v>3.136</v>
+        <v>2.94</v>
       </c>
       <c r="N70" t="n">
-        <v>4.2894</v>
+        <v>3.8658</v>
       </c>
       <c r="O70" t="n">
         <v>1841894</v>
@@ -6714,7 +6714,7 @@
         <v>0.0055</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0077464506538291</v>
+        <v>0.0077533200021527</v>
       </c>
       <c r="H78" t="n">
         <v>0.057752822245621</v>
@@ -6725,7 +6725,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00158</v>
+        <v>0.00164</v>
       </c>
       <c r="M78" t="n">
         <v>0.01322</v>
@@ -6795,7 +6795,7 @@
         <v>0.0055</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0077464506538291</v>
+        <v>0.0077533200021527</v>
       </c>
       <c r="H79" t="n">
         <v>0.057752822245621</v>
@@ -6806,7 +6806,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00158</v>
+        <v>0.00164</v>
       </c>
       <c r="M79" t="n">
         <v>0.01322</v>
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.352</v>
+        <v>0.3515</v>
       </c>
       <c r="G83" t="n">
-        <v>0.447813559322034</v>
+        <v>0.44785593220339</v>
       </c>
       <c r="H83" t="n">
         <v>1.299</v>
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.352</v>
+        <v>0.3515</v>
       </c>
       <c r="G84" t="n">
-        <v>0.447813559322034</v>
+        <v>0.44785593220339</v>
       </c>
       <c r="H84" t="n">
         <v>1.299</v>
@@ -7732,27 +7732,27 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G91" t="n">
-        <v>1.81285775262089</v>
+        <v>1.74175728855113</v>
       </c>
       <c r="H91" t="n">
-        <v>4.40859886794022</v>
+        <v>4.27</v>
       </c>
       <c r="I91" t="n">
-        <v>3.9175</v>
+        <v>3.575</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M91" t="n">
-        <v>2.554</v>
+        <v>2.517</v>
       </c>
       <c r="N91" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="O91" t="n">
         <v>1841894</v>
@@ -8395,7 +8395,7 @@
         <v>0.00426</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0071671923576188</v>
+        <v>0.0071751128742239</v>
       </c>
       <c r="H99" t="n">
         <v>0.057752822245621</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00158</v>
+        <v>0.00164</v>
       </c>
       <c r="M99" t="n">
         <v>0.01243</v>
@@ -8476,7 +8476,7 @@
         <v>0.00426</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0071671923576188</v>
+        <v>0.0071751128742239</v>
       </c>
       <c r="H100" t="n">
         <v>0.057752822245621</v>
@@ -8487,7 +8487,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00158</v>
+        <v>0.00164</v>
       </c>
       <c r="M100" t="n">
         <v>0.01243</v>
@@ -8557,7 +8557,7 @@
         <v>0.30465</v>
       </c>
       <c r="G101" t="n">
-        <v>0.411436265393763</v>
+        <v>0.411444781317328</v>
       </c>
       <c r="H101" t="n">
         <v>1.27</v>
@@ -8638,7 +8638,7 @@
         <v>0.30465</v>
       </c>
       <c r="G102" t="n">
-        <v>0.411436265393763</v>
+        <v>0.411444781317328</v>
       </c>
       <c r="H102" t="n">
         <v>1.27</v>
@@ -8789,10 +8789,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.3425</v>
+        <v>0.34225</v>
       </c>
       <c r="G104" t="n">
-        <v>0.424739983801462</v>
+        <v>0.424766347028582</v>
       </c>
       <c r="H104" t="n">
         <v>1.299</v>
@@ -8803,10 +8803,10 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.092</v>
+        <v>0.0919</v>
       </c>
       <c r="M104" t="n">
-        <v>0.7706</v>
+        <v>0.77088</v>
       </c>
       <c r="N104" t="n">
         <v>0.9978</v>
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.3425</v>
+        <v>0.34225</v>
       </c>
       <c r="G105" t="n">
-        <v>0.424739983801462</v>
+        <v>0.424766347028582</v>
       </c>
       <c r="H105" t="n">
         <v>1.299</v>
@@ -8880,10 +8880,10 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.092</v>
+        <v>0.0919</v>
       </c>
       <c r="M105" t="n">
-        <v>0.7706</v>
+        <v>0.77088</v>
       </c>
       <c r="N105" t="n">
         <v>0.9978</v>
@@ -9497,7 +9497,7 @@
         <v>0.012</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0122943661868866</v>
+        <v>0.0122956544979952</v>
       </c>
       <c r="H113" t="n">
         <v>0.032</v>
@@ -9578,7 +9578,7 @@
         <v>0.012</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0122943661868866</v>
+        <v>0.0122956544979952</v>
       </c>
       <c r="H114" t="n">
         <v>0.032</v>
@@ -10076,7 +10076,7 @@
         <v>0.00227</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0057281606186853</v>
+        <v>0.005767726631907</v>
       </c>
       <c r="H120" t="n">
         <v>0.057752822245621</v>
@@ -10087,7 +10087,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00156</v>
+        <v>0.00161</v>
       </c>
       <c r="M120" t="n">
         <v>0.01102</v>
@@ -10157,7 +10157,7 @@
         <v>0.00227</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0057281606186853</v>
+        <v>0.005767726631907</v>
       </c>
       <c r="H121" t="n">
         <v>0.057752822245621</v>
@@ -10168,7 +10168,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00156</v>
+        <v>0.00161</v>
       </c>
       <c r="M121" t="n">
         <v>0.01102</v>
@@ -10238,7 +10238,7 @@
         <v>0.2882</v>
       </c>
       <c r="G122" t="n">
-        <v>0.382105725003334</v>
+        <v>0.382125025935201</v>
       </c>
       <c r="H122" t="n">
         <v>1.27</v>
@@ -10319,7 +10319,7 @@
         <v>0.2882</v>
       </c>
       <c r="G123" t="n">
-        <v>0.382105725003334</v>
+        <v>0.382125025935201</v>
       </c>
       <c r="H123" t="n">
         <v>1.27</v>
@@ -10470,10 +10470,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.308</v>
+        <v>0.30775</v>
       </c>
       <c r="G125" t="n">
-        <v>0.395239983801462</v>
+        <v>0.395266347028582</v>
       </c>
       <c r="H125" t="n">
         <v>1.299</v>
@@ -10487,7 +10487,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="M125" t="n">
-        <v>0.7325</v>
+        <v>0.73248</v>
       </c>
       <c r="N125" t="n">
         <v>0.9431</v>
@@ -10547,10 +10547,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.308</v>
+        <v>0.30775</v>
       </c>
       <c r="G126" t="n">
-        <v>0.395239983801462</v>
+        <v>0.395266347028582</v>
       </c>
       <c r="H126" t="n">
         <v>1.299</v>
@@ -10564,7 +10564,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="M126" t="n">
-        <v>0.7325</v>
+        <v>0.73248</v>
       </c>
       <c r="N126" t="n">
         <v>0.9431</v>
@@ -11178,7 +11178,7 @@
         <v>0.013</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0128443661868866</v>
+        <v>0.0128456544979952</v>
       </c>
       <c r="H134" t="n">
         <v>0.032</v>
@@ -11259,7 +11259,7 @@
         <v>0.013</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0128443661868866</v>
+        <v>0.0128456544979952</v>
       </c>
       <c r="H135" t="n">
         <v>0.032</v>
@@ -11754,10 +11754,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00178</v>
+        <v>0.00189</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0031373406650187</v>
+        <v>0.0032019640194298</v>
       </c>
       <c r="H141" t="n">
         <v>0.0153324050416516</v>
@@ -11768,7 +11768,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00156</v>
+        <v>0.00161</v>
       </c>
       <c r="M141" t="n">
         <v>0.00506</v>
@@ -11835,10 +11835,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00178</v>
+        <v>0.00189</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0031373406650187</v>
+        <v>0.0032019640194298</v>
       </c>
       <c r="H142" t="n">
         <v>0.0153324050416516</v>
@@ -11849,7 +11849,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00156</v>
+        <v>0.00161</v>
       </c>
       <c r="M142" t="n">
         <v>0.00506</v>
@@ -11919,7 +11919,7 @@
         <v>0.2872</v>
       </c>
       <c r="G143" t="n">
-        <v>0.368872391670001</v>
+        <v>0.368891692601868</v>
       </c>
       <c r="H143" t="n">
         <v>1.23</v>
@@ -12000,7 +12000,7 @@
         <v>0.2872</v>
       </c>
       <c r="G144" t="n">
-        <v>0.368872391670001</v>
+        <v>0.368891692601868</v>
       </c>
       <c r="H144" t="n">
         <v>1.23</v>
@@ -12151,10 +12151,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.299</v>
+        <v>0.2988</v>
       </c>
       <c r="G146" t="n">
-        <v>0.380506650468128</v>
+        <v>0.380536347028582</v>
       </c>
       <c r="H146" t="n">
         <v>1.25</v>
@@ -12168,7 +12168,7 @@
         <v>0.08</v>
       </c>
       <c r="M146" t="n">
-        <v>0.7129</v>
+        <v>0.7133</v>
       </c>
       <c r="N146" t="n">
         <v>0.8942</v>
@@ -12228,10 +12228,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.299</v>
+        <v>0.2988</v>
       </c>
       <c r="G147" t="n">
-        <v>0.380506650468128</v>
+        <v>0.380536347028582</v>
       </c>
       <c r="H147" t="n">
         <v>1.25</v>
@@ -12245,7 +12245,7 @@
         <v>0.08</v>
       </c>
       <c r="M147" t="n">
-        <v>0.7129</v>
+        <v>0.7133</v>
       </c>
       <c r="N147" t="n">
         <v>0.8942</v>
@@ -12859,7 +12859,7 @@
         <v>0.013</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0135610328535533</v>
+        <v>0.0135623211646619</v>
       </c>
       <c r="H155" t="n">
         <v>0.032</v>
@@ -12940,7 +12940,7 @@
         <v>0.013</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0135610328535533</v>
+        <v>0.0135623211646619</v>
       </c>
       <c r="H156" t="n">
         <v>0.032</v>
@@ -13435,10 +13435,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00247</v>
+        <v>0.00261</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0036189896727378</v>
+        <v>0.0037036184067331</v>
       </c>
       <c r="H162" t="n">
         <v>0.0153324050416516</v>
@@ -13449,7 +13449,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00247</v>
+        <v>0.00261</v>
       </c>
       <c r="M162" t="n">
         <v>0.00531</v>
@@ -13516,10 +13516,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00247</v>
+        <v>0.00261</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0036189896727378</v>
+        <v>0.0037036184067331</v>
       </c>
       <c r="H163" t="n">
         <v>0.0153324050416516</v>
@@ -13530,7 +13530,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00247</v>
+        <v>0.00261</v>
       </c>
       <c r="M163" t="n">
         <v>0.00531</v>
@@ -13600,7 +13600,7 @@
         <v>0.3546</v>
       </c>
       <c r="G164" t="n">
-        <v>0.384397391670001</v>
+        <v>0.384416692601868</v>
       </c>
       <c r="H164" t="n">
         <v>1.23</v>
@@ -13681,7 +13681,7 @@
         <v>0.3546</v>
       </c>
       <c r="G165" t="n">
-        <v>0.384397391670001</v>
+        <v>0.384416692601868</v>
       </c>
       <c r="H165" t="n">
         <v>1.23</v>
@@ -13832,10 +13832,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.3585</v>
+        <v>0.35825</v>
       </c>
       <c r="G167" t="n">
-        <v>0.395939983801462</v>
+        <v>0.395948013695248</v>
       </c>
       <c r="H167" t="n">
         <v>1.25</v>
@@ -13849,7 +13849,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="M167" t="n">
-        <v>0.6965</v>
+        <v>0.69662</v>
       </c>
       <c r="N167" t="n">
         <v>0.8735000000000001</v>
@@ -13909,10 +13909,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.3585</v>
+        <v>0.35825</v>
       </c>
       <c r="G168" t="n">
-        <v>0.395939983801462</v>
+        <v>0.395948013695248</v>
       </c>
       <c r="H168" t="n">
         <v>1.25</v>
@@ -13926,7 +13926,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="M168" t="n">
-        <v>0.6965</v>
+        <v>0.69662</v>
       </c>
       <c r="N168" t="n">
         <v>0.8735000000000001</v>
@@ -14459,13 +14459,13 @@
         <v>1.8</v>
       </c>
       <c r="G175" t="n">
-        <v>2.08608374205823</v>
+        <v>1.97601562244435</v>
       </c>
       <c r="H175" t="n">
-        <v>8.88643089402853</v>
+        <v>7.16440358717013</v>
       </c>
       <c r="I175" t="n">
-        <v>6.57641</v>
+        <v>4.73127</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -14540,7 +14540,7 @@
         <v>0.013</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0136610328535533</v>
+        <v>0.0136623211646619</v>
       </c>
       <c r="H176" t="n">
         <v>0.032</v>
@@ -14621,7 +14621,7 @@
         <v>0.013</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0136610328535533</v>
+        <v>0.0136623211646619</v>
       </c>
       <c r="H177" t="n">
         <v>0.032</v>
@@ -15116,10 +15116,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.0038</v>
+        <v>0.00401</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0049985258376375</v>
+        <v>0.0051402699913482</v>
       </c>
       <c r="H183" t="n">
         <v>0.0194343961580587</v>
@@ -15130,13 +15130,13 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00382</v>
+        <v>0.00403</v>
       </c>
       <c r="M183" t="n">
-        <v>0.01018</v>
+        <v>0.01055</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01276</v>
+        <v>0.01339</v>
       </c>
       <c r="O183" t="n">
         <v>1841894</v>
@@ -15197,10 +15197,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.0038</v>
+        <v>0.00401</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0049985258376375</v>
+        <v>0.0051402699913482</v>
       </c>
       <c r="H184" t="n">
         <v>0.0194343961580587</v>
@@ -15211,13 +15211,13 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00382</v>
+        <v>0.00403</v>
       </c>
       <c r="M184" t="n">
-        <v>0.01018</v>
+        <v>0.01055</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01276</v>
+        <v>0.01339</v>
       </c>
       <c r="O184" t="n">
         <v>1841894</v>
@@ -15281,7 +15281,7 @@
         <v>0.4035</v>
       </c>
       <c r="G185" t="n">
-        <v>0.391089507571491</v>
+        <v>0.391121132432264</v>
       </c>
       <c r="H185" t="n">
         <v>1.23</v>
@@ -15362,7 +15362,7 @@
         <v>0.4035</v>
       </c>
       <c r="G186" t="n">
-        <v>0.391089507571491</v>
+        <v>0.391121132432264</v>
       </c>
       <c r="H186" t="n">
         <v>1.23</v>
@@ -15516,7 +15516,7 @@
         <v>0.41</v>
       </c>
       <c r="G188" t="n">
-        <v>0.404116971412106</v>
+        <v>0.404141430526725</v>
       </c>
       <c r="H188" t="n">
         <v>1.25</v>
@@ -15527,10 +15527,10 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.0905</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="M188" t="n">
-        <v>0.7094</v>
+        <v>0.70952</v>
       </c>
       <c r="N188" t="n">
         <v>0.8735000000000001</v>
@@ -15593,7 +15593,7 @@
         <v>0.41</v>
       </c>
       <c r="G189" t="n">
-        <v>0.404116971412106</v>
+        <v>0.404141430526725</v>
       </c>
       <c r="H189" t="n">
         <v>1.25</v>
@@ -15604,10 +15604,10 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.0905</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="M189" t="n">
-        <v>0.7094</v>
+        <v>0.70952</v>
       </c>
       <c r="N189" t="n">
         <v>0.8735000000000001</v>
@@ -16140,13 +16140,13 @@
         <v>1.8</v>
       </c>
       <c r="G196" t="n">
-        <v>2.26861811146166</v>
+        <v>2.16953696404051</v>
       </c>
       <c r="H196" t="n">
-        <v>8.88643089402853</v>
+        <v>7.16440358717013</v>
       </c>
       <c r="I196" t="n">
-        <v>6.67913</v>
+        <v>5.08775</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -16157,7 +16157,7 @@
         <v>3.5</v>
       </c>
       <c r="N196" t="n">
-        <v>4.37543</v>
+        <v>4.8525</v>
       </c>
       <c r="O196" t="n">
         <v>1841894</v>
@@ -16221,7 +16221,7 @@
         <v>0.014</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0142654571392068</v>
+        <v>0.0142667672860968</v>
       </c>
       <c r="H197" t="n">
         <v>0.025</v>
@@ -16302,7 +16302,7 @@
         <v>0.014</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0142654571392068</v>
+        <v>0.0142667672860968</v>
       </c>
       <c r="H198" t="n">
         <v>0.025</v>
@@ -16797,10 +16797,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.00457</v>
+        <v>0.0047</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0064778935268991</v>
+        <v>0.006623758283911</v>
       </c>
       <c r="H204" t="n">
         <v>0.03</v>
@@ -16811,7 +16811,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.00528</v>
+        <v>0.00557</v>
       </c>
       <c r="M204" t="n">
         <v>0.01085</v>
@@ -16878,10 +16878,10 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.00457</v>
+        <v>0.0047</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0064778935268991</v>
+        <v>0.006623758283911</v>
       </c>
       <c r="H205" t="n">
         <v>0.03</v>
@@ -16892,7 +16892,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.00528</v>
+        <v>0.00557</v>
       </c>
       <c r="M205" t="n">
         <v>0.01085</v>
@@ -16962,7 +16962,7 @@
         <v>0.396</v>
       </c>
       <c r="G206" t="n">
-        <v>0.385547364926503</v>
+        <v>0.385570865540613</v>
       </c>
       <c r="H206" t="n">
         <v>1.23</v>
@@ -17043,7 +17043,7 @@
         <v>0.396</v>
       </c>
       <c r="G207" t="n">
-        <v>0.385547364926503</v>
+        <v>0.385570865540613</v>
       </c>
       <c r="H207" t="n">
         <v>1.23</v>
@@ -17197,7 +17197,7 @@
         <v>0.405</v>
       </c>
       <c r="G209" t="n">
-        <v>0.398824055197265</v>
+        <v>0.398847542540485</v>
       </c>
       <c r="H209" t="n">
         <v>1.25</v>
@@ -17274,7 +17274,7 @@
         <v>0.405</v>
       </c>
       <c r="G210" t="n">
-        <v>0.398824055197265</v>
+        <v>0.398847542540485</v>
       </c>
       <c r="H210" t="n">
         <v>1.25</v>
@@ -17821,13 +17821,13 @@
         <v>2.1</v>
       </c>
       <c r="G217" t="n">
-        <v>2.62191290222945</v>
+        <v>2.48772185421135</v>
       </c>
       <c r="H217" t="n">
-        <v>8.88643089402853</v>
+        <v>7.16440358717013</v>
       </c>
       <c r="I217" t="n">
-        <v>7.01674</v>
+        <v>6.22165</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -17835,10 +17835,10 @@
         <v>2.8</v>
       </c>
       <c r="M217" t="n">
-        <v>4.24626</v>
+        <v>4.13109</v>
       </c>
       <c r="N217" t="n">
-        <v>6.35017</v>
+        <v>5.13175</v>
       </c>
       <c r="O217" t="n">
         <v>1841894</v>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0.00467</v>
+        <v>0.00475</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0072957624055223</v>
+        <v>0.0074020730998136</v>
       </c>
       <c r="H225" t="n">
         <v>0.03</v>
@@ -18495,7 +18495,7 @@
         <v>0.00472</v>
       </c>
       <c r="M225" t="n">
-        <v>0.01202</v>
+        <v>0.01268</v>
       </c>
       <c r="N225" t="n">
         <v>0.01985</v>
@@ -18559,10 +18559,10 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0.00467</v>
+        <v>0.00475</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0072957624055223</v>
+        <v>0.0074020730998136</v>
       </c>
       <c r="H226" t="n">
         <v>0.03</v>
@@ -18576,7 +18576,7 @@
         <v>0.00472</v>
       </c>
       <c r="M226" t="n">
-        <v>0.01202</v>
+        <v>0.01268</v>
       </c>
       <c r="N226" t="n">
         <v>0.01985</v>
@@ -18643,7 +18643,7 @@
         <v>0.279</v>
       </c>
       <c r="G227" t="n">
-        <v>0.338509415071519</v>
+        <v>0.338535656746097</v>
       </c>
       <c r="H227" t="n">
         <v>1.01</v>
@@ -18724,7 +18724,7 @@
         <v>0.279</v>
       </c>
       <c r="G228" t="n">
-        <v>0.338509415071519</v>
+        <v>0.338535656746097</v>
       </c>
       <c r="H228" t="n">
         <v>1.01</v>
@@ -18875,10 +18875,10 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0.28</v>
+        <v>0.2805</v>
       </c>
       <c r="G230" t="n">
-        <v>0.348976597570146</v>
+        <v>0.349000084913366</v>
       </c>
       <c r="H230" t="n">
         <v>1.03</v>
@@ -18952,10 +18952,10 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0.28</v>
+        <v>0.2805</v>
       </c>
       <c r="G231" t="n">
-        <v>0.348976597570146</v>
+        <v>0.349000084913366</v>
       </c>
       <c r="H231" t="n">
         <v>1.03</v>
@@ -19502,13 +19502,13 @@
         <v>2.5</v>
       </c>
       <c r="G238" t="n">
-        <v>2.84585146164771</v>
+        <v>2.75879559880143</v>
       </c>
       <c r="H238" t="n">
-        <v>8.88643089402853</v>
+        <v>7.16440358717013</v>
       </c>
       <c r="I238" t="n">
-        <v>7.12436</v>
+        <v>6.89622</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -19516,10 +19516,10 @@
         <v>2.8</v>
       </c>
       <c r="M238" t="n">
-        <v>4.398</v>
+        <v>4.39799</v>
       </c>
       <c r="N238" t="n">
-        <v>6.64354</v>
+        <v>6.28857</v>
       </c>
       <c r="O238" t="n">
         <v>1841894</v>
@@ -20162,7 +20162,7 @@
         <v>0.00725</v>
       </c>
       <c r="G246" t="n">
-        <v>0.009016146960621</v>
+        <v>0.009094456176629</v>
       </c>
       <c r="H246" t="n">
         <v>0.0330522009741848</v>
@@ -20173,7 +20173,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
-        <v>0.00521</v>
+        <v>0.00535</v>
       </c>
       <c r="M246" t="n">
         <v>0.01358</v>
@@ -20243,7 +20243,7 @@
         <v>0.00725</v>
       </c>
       <c r="G247" t="n">
-        <v>0.009016146960621</v>
+        <v>0.009094456176629</v>
       </c>
       <c r="H247" t="n">
         <v>0.0330522009741848</v>
@@ -20254,7 +20254,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>0.00521</v>
+        <v>0.00535</v>
       </c>
       <c r="M247" t="n">
         <v>0.01358</v>
@@ -20324,7 +20324,7 @@
         <v>0.282</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3438630256762</v>
+        <v>0.343889719793443</v>
       </c>
       <c r="H248" t="n">
         <v>0.968</v>
@@ -20405,7 +20405,7 @@
         <v>0.282</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3438630256762</v>
+        <v>0.343889719793443</v>
       </c>
       <c r="H249" t="n">
         <v>0.968</v>
@@ -20559,7 +20559,7 @@
         <v>0.3065</v>
       </c>
       <c r="G251" t="n">
-        <v>0.355889987183425</v>
+        <v>0.355913879480838</v>
       </c>
       <c r="H251" t="n">
         <v>0.991</v>
@@ -20636,7 +20636,7 @@
         <v>0.3065</v>
       </c>
       <c r="G252" t="n">
-        <v>0.355889987183425</v>
+        <v>0.355913879480838</v>
       </c>
       <c r="H252" t="n">
         <v>0.991</v>
@@ -20995,6 +20995,1687 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.4416</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.5397999999999999</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>10</v>
+      </c>
+      <c r="G258" t="n">
+        <v>21.3489998402249</v>
+      </c>
+      <c r="H258" t="n">
+        <v>200</v>
+      </c>
+      <c r="I258" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>16</v>
+      </c>
+      <c r="M258" t="n">
+        <v>38.745</v>
+      </c>
+      <c r="N258" t="n">
+        <v>51.81</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G259" t="n">
+        <v>2.8917139543126</v>
+      </c>
+      <c r="H259" t="n">
+        <v>7.16440358717013</v>
+      </c>
+      <c r="I259" t="n">
+        <v>6.89748</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>3</v>
+      </c>
+      <c r="M259" t="n">
+        <v>4.54261</v>
+      </c>
+      <c r="N259" t="n">
+        <v>6.38634</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.0147413793103448</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.02128</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.0147413793103448</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.02128</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>300</v>
+      </c>
+      <c r="G262" t="n">
+        <v>822.6896551724139</v>
+      </c>
+      <c r="H262" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I262" t="n">
+        <v>4440</v>
+      </c>
+      <c r="J262" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K262" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L262" t="n">
+        <v>480</v>
+      </c>
+      <c r="M262" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1844</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>300</v>
+      </c>
+      <c r="G263" t="n">
+        <v>822.6896551724139</v>
+      </c>
+      <c r="H263" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I263" t="n">
+        <v>4440</v>
+      </c>
+      <c r="J263" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K263" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L263" t="n">
+        <v>480</v>
+      </c>
+      <c r="M263" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1844</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>300</v>
+      </c>
+      <c r="G264" t="n">
+        <v>822.6896551724139</v>
+      </c>
+      <c r="H264" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I264" t="n">
+        <v>4440</v>
+      </c>
+      <c r="J264" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K264" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L264" t="n">
+        <v>480</v>
+      </c>
+      <c r="M264" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1844</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>300</v>
+      </c>
+      <c r="G265" t="n">
+        <v>822.6896551724139</v>
+      </c>
+      <c r="H265" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I265" t="n">
+        <v>4440</v>
+      </c>
+      <c r="J265" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K265" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L265" t="n">
+        <v>480</v>
+      </c>
+      <c r="M265" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1844</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>108</v>
+      </c>
+      <c r="G266" t="n">
+        <v>108.614</v>
+      </c>
+      <c r="H266" t="n">
+        <v>123.75</v>
+      </c>
+      <c r="I266" t="n">
+        <v>123.75</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>108</v>
+      </c>
+      <c r="M266" t="n">
+        <v>118.2375</v>
+      </c>
+      <c r="N266" t="n">
+        <v>123.75</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.00674</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.008612540466782601</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.0330522009741848</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.02867</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.01375</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.02051</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>0.00674</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.008612540466782601</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.0330522009741848</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.02867</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.01375</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.02051</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.367665581862409</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.70208</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.85772</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.367665581862409</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.70208</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.85772</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="G271" t="n">
+        <v>5.7576</v>
+      </c>
+      <c r="H271" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="I271" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="M271" t="n">
+        <v>7.0025</v>
+      </c>
+      <c r="N271" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0.27875</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.379896638101528</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.70752</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.89352</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0.27875</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.379896638101528</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.70752</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.89352</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.579310344827586</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1.2072</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.579310344827586</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N275" t="n">
+        <v>1.2072</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0328620689655172</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.0798</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0328620689655172</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.0798</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
+++ b/state_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
@@ -570,10 +570,10 @@
         <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.54928352134989</v>
+        <v>2.52185343946542</v>
       </c>
       <c r="H2" t="n">
-        <v>9.06392170505508</v>
+        <v>8.83843420666183</v>
       </c>
       <c r="I2" t="n">
         <v>6.19</v>
@@ -584,7 +584,7 @@
         <v>2.58</v>
       </c>
       <c r="M2" t="n">
-        <v>4.145</v>
+        <v>3.9535</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
@@ -1631,13 +1631,13 @@
         <v>2.15</v>
       </c>
       <c r="G15" t="n">
-        <v>2.57402454702989</v>
+        <v>2.54971714792573</v>
       </c>
       <c r="H15" t="n">
-        <v>9.06392170505508</v>
+        <v>8.83843420666183</v>
       </c>
       <c r="I15" t="n">
-        <v>6.98778</v>
+        <v>6.84015</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1645,7 +1645,7 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>4.31</v>
+        <v>3.97781</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
@@ -3000,7 +3000,7 @@
         <v>1.95</v>
       </c>
       <c r="G32" t="n">
-        <v>2.09502328757151</v>
+        <v>2.08884938576356</v>
       </c>
       <c r="H32" t="n">
         <v>6.4</v>
@@ -3017,7 +3017,7 @@
         <v>3.455</v>
       </c>
       <c r="N32" t="n">
-        <v>4.64227</v>
+        <v>4.58</v>
       </c>
       <c r="O32" t="n">
         <v>1841894</v>
@@ -4450,7 +4450,7 @@
         <v>1.75</v>
       </c>
       <c r="G50" t="n">
-        <v>2.04246623117948</v>
+        <v>2.03600517114791</v>
       </c>
       <c r="H50" t="n">
         <v>6.4</v>
@@ -4467,7 +4467,7 @@
         <v>3.557</v>
       </c>
       <c r="N50" t="n">
-        <v>4.66815</v>
+        <v>4.624</v>
       </c>
       <c r="O50" t="n">
         <v>1841894</v>
@@ -6054,7 +6054,7 @@
         <v>1.745</v>
       </c>
       <c r="G70" t="n">
-        <v>1.92069233297145</v>
+        <v>1.92926284202359</v>
       </c>
       <c r="H70" t="n">
         <v>6.4</v>
@@ -7735,7 +7735,7 @@
         <v>1.74</v>
       </c>
       <c r="G91" t="n">
-        <v>1.74175728855113</v>
+        <v>1.74975643033313</v>
       </c>
       <c r="H91" t="n">
         <v>4.27</v>
@@ -14459,13 +14459,13 @@
         <v>1.8</v>
       </c>
       <c r="G175" t="n">
-        <v>1.97601562244435</v>
+        <v>2.01500510566671</v>
       </c>
       <c r="H175" t="n">
-        <v>7.16440358717013</v>
+        <v>8.425191931238571</v>
       </c>
       <c r="I175" t="n">
-        <v>4.73127</v>
+        <v>4.16136</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -16140,13 +16140,13 @@
         <v>1.8</v>
       </c>
       <c r="G196" t="n">
-        <v>2.16953696404051</v>
+        <v>2.24894530967693</v>
       </c>
       <c r="H196" t="n">
-        <v>7.16440358717013</v>
+        <v>8.425191931238571</v>
       </c>
       <c r="I196" t="n">
-        <v>5.08775</v>
+        <v>6.55279</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -16157,7 +16157,7 @@
         <v>3.5</v>
       </c>
       <c r="N196" t="n">
-        <v>4.8525</v>
+        <v>4.57586</v>
       </c>
       <c r="O196" t="n">
         <v>1841894</v>
@@ -17821,13 +17821,13 @@
         <v>2.1</v>
       </c>
       <c r="G217" t="n">
-        <v>2.48772185421135</v>
+        <v>2.59455187209901</v>
       </c>
       <c r="H217" t="n">
-        <v>7.16440358717013</v>
+        <v>8.425191931238571</v>
       </c>
       <c r="I217" t="n">
-        <v>6.22165</v>
+        <v>7.60989</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -17835,10 +17835,10 @@
         <v>2.8</v>
       </c>
       <c r="M217" t="n">
-        <v>4.13109</v>
+        <v>4.12247</v>
       </c>
       <c r="N217" t="n">
-        <v>5.13175</v>
+        <v>5.99126</v>
       </c>
       <c r="O217" t="n">
         <v>1841894</v>
@@ -19502,13 +19502,13 @@
         <v>2.5</v>
       </c>
       <c r="G238" t="n">
-        <v>2.75879559880143</v>
+        <v>3.00228516950466</v>
       </c>
       <c r="H238" t="n">
-        <v>7.16440358717013</v>
+        <v>14.4335127826172</v>
       </c>
       <c r="I238" t="n">
-        <v>6.89622</v>
+        <v>8.013820000000001</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -19516,10 +19516,10 @@
         <v>2.8</v>
       </c>
       <c r="M238" t="n">
-        <v>4.39799</v>
+        <v>4.5668</v>
       </c>
       <c r="N238" t="n">
-        <v>6.28857</v>
+        <v>7.2076</v>
       </c>
       <c r="O238" t="n">
         <v>1841894</v>
@@ -21183,13 +21183,13 @@
         <v>2.8</v>
       </c>
       <c r="G259" t="n">
-        <v>2.8917139543126</v>
+        <v>3.14422165726409</v>
       </c>
       <c r="H259" t="n">
-        <v>7.16440358717013</v>
+        <v>14.4335127826172</v>
       </c>
       <c r="I259" t="n">
-        <v>6.89748</v>
+        <v>8.0396</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -21197,10 +21197,10 @@
         <v>3</v>
       </c>
       <c r="M259" t="n">
-        <v>4.54261</v>
+        <v>4.58828</v>
       </c>
       <c r="N259" t="n">
-        <v>6.38634</v>
+        <v>7.30977</v>
       </c>
       <c r="O259" t="n">
         <v>1841894</v>
